--- a/Shalini Ma'a,m Internship_Detalis.xlsx
+++ b/Shalini Ma'a,m Internship_Detalis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\notes\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7358A2D7-E76A-400D-BB7B-D5DFC10F6346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C640EF30-A0D0-4194-925D-3E8121B9EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internship Detalis" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="71">
   <si>
     <t>Student Name</t>
   </si>
@@ -218,6 +218,35 @@
   </si>
   <si>
     <t>Day-4  11-12-2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11-12-2025</t>
+  </si>
+  <si>
+    <t>Mobile app 
+design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentool
+mobile 
+app
+design
+</t>
+  </si>
+  <si>
+    <t>gradient
+ in figma 
+and css</t>
+  </si>
+  <si>
+    <t>Plugins in 
+figma</t>
+  </si>
+  <si>
+    <t>Total Days</t>
+  </si>
+  <si>
+    <t>no of hrs</t>
   </si>
 </sst>
 </file>
@@ -302,7 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -311,16 +340,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +667,7 @@
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,142 +708,142 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6" t="s">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6" t="s">
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6" t="s">
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6" t="s">
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6" t="s">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6" t="s">
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6" t="s">
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6" t="s">
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6" t="s">
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6" t="s">
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6" t="s">
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6" t="s">
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6" t="s">
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6" t="s">
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
     </row>
     <row r="2" spans="1:79" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -1005,7 +1043,7 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F3" t="s">
@@ -1076,7 +1114,7 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1183,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1252,7 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
       <c r="F6" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1333,7 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1411,7 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" t="s">
         <v>7</v>
       </c>
@@ -1443,32 +1481,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="BH1:BI1"/>
-    <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="BX1:BY1"/>
     <mergeCell ref="BZ1:CA1"/>
@@ -1485,6 +1497,32 @@
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions headings="1"/>
@@ -1495,429 +1533,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E97895-C103-42C1-B7E8-F0C15B512BDF}">
-  <dimension ref="A1:CA5"/>
+  <dimension ref="A1:CA10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:79" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1" s="8">
+        <v>45999</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="8">
+        <v>46000</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="8">
+        <v>46001</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="8">
+        <v>46003</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="8">
+        <v>46004</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="8">
+        <v>46006</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="8">
+        <v>46007</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="8">
+        <v>46008</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="8">
+        <v>46009</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="8">
+        <v>46010</v>
+      </c>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="8">
+        <v>46011</v>
+      </c>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="8">
+        <v>46013</v>
+      </c>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="8">
+        <v>46016</v>
+      </c>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="8">
+        <v>46017</v>
+      </c>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="8">
+        <v>46018</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="8">
+        <v>46020</v>
+      </c>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="8">
+        <v>46021</v>
+      </c>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="8">
+        <v>46022</v>
+      </c>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="8">
+        <v>46027</v>
+      </c>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
     </row>
     <row r="2" spans="1:79" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
     </row>
-    <row r="3" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>60</v>
+    <row r="3" spans="1:79" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1989,12 +2069,51 @@
         <v>58</v>
       </c>
       <c r="Z4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" t="s">
         <v>61</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
+      <c r="A5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -2003,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -2024,13 +2143,13 @@
         <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -2066,56 +2185,258 @@
         <v>58</v>
       </c>
       <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" t="s">
         <v>59</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AD5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG5" s="9"/>
+      <c r="AH5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK5" s="9"/>
+      <c r="AL5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5" s="10"/>
+    </row>
+    <row r="6" spans="1:79" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="9"/>
+      <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK6" s="9"/>
+      <c r="AL6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ6" s="10"/>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <f>COUNTA(1:1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <f>C9*4</f>
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <f>COUNT(D1:AO1)</f>
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <f>4*H10</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="BR1:BS1"/>
-    <mergeCell ref="BT1:BU1"/>
+  <mergeCells count="83">
+    <mergeCell ref="AQ4:AQ6"/>
     <mergeCell ref="BV1:BW1"/>
     <mergeCell ref="BX1:BY1"/>
     <mergeCell ref="BZ1:CA1"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="BN1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="BN1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
+    <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
     <mergeCell ref="AX1:AY1"/>
     <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BW2"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BZ2:CA2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2124,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85545A53-7EDF-4AFA-B880-0C7F34BB946D}">
   <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,142 +2461,142 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6" t="s">
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6" t="s">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6" t="s">
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6" t="s">
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6" t="s">
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6" t="s">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6" t="s">
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6" t="s">
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6" t="s">
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6" t="s">
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6" t="s">
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6" t="s">
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6" t="s">
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6" t="s">
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6" t="s">
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
     </row>
     <row r="2" spans="1:79" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
@@ -2668,16 +2989,30 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="BR1:BS1"/>
-    <mergeCell ref="BT1:BU1"/>
-    <mergeCell ref="BV1:BW1"/>
-    <mergeCell ref="BX1:BY1"/>
-    <mergeCell ref="BZ1:CA1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BH1:BI1"/>
-    <mergeCell ref="BJ1:BK1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="BN1:BO1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
     <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="AV1:AW1"/>
@@ -2685,31 +3020,18 @@
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BB1:BC1"/>
     <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="BN1:BO1"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BU1"/>
+    <mergeCell ref="BV1:BW1"/>
+    <mergeCell ref="BX1:BY1"/>
+    <mergeCell ref="BZ1:CA1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>